--- a/doc/chart.xlsx
+++ b/doc/chart.xlsx
@@ -154,29 +154,80 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="61353984"/>
-        <c:axId val="61076992"/>
+        <c:axId val="58184448"/>
+        <c:axId val="58185984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61353984"/>
+        <c:axId val="58184448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>每批次条数</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61076992"/>
+        <c:crossAx val="58185984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61076992"/>
+        <c:axId val="58185984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVertRtl"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>耗时</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>秒</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -186,7 +237,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="61353984"/>
+        <c:crossAx val="58184448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -196,7 +247,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>

--- a/doc/chart.xlsx
+++ b/doc/chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,18 +11,22 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>y：时间（s）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x：每次提交（条）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总量恒定是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,9 +73,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -154,29 +161,75 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="61353984"/>
-        <c:axId val="61076992"/>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+        </c:dLbls>
+        <c:axId val="196608000"/>
+        <c:axId val="196611072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61353984"/>
+        <c:axId val="196608000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>批次</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47298589348572229"/>
+              <c:y val="0.90909090909090906"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61076992"/>
+        <c:crossAx val="196611072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61076992"/>
+        <c:axId val="196611072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVertRtl"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>总耗时</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -186,7 +239,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="61353984"/>
+        <c:crossAx val="196608000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -196,7 +249,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -522,13 +575,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:C8"/>
+  <dimension ref="B3:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
@@ -578,7 +636,20 @@
         <v>125</v>
       </c>
     </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:C11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
